--- a/biology/Biochimie/Acide_hénéicosylique/Acide_hénéicosylique.xlsx
+++ b/biology/Biochimie/Acide_hénéicosylique/Acide_hénéicosylique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_h%C3%A9n%C3%A9icosylique</t>
+          <t>Acide_hénéicosylique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acide hénéicosylique ou acide hénéicosanoïque (nom systématique) est un acide gras saturé à chaîne longue (AGCL, C21:0) de formule semi-développée CH3(CH2)19COOH.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_h%C3%A9n%C3%A9icosylique</t>
+          <t>Acide_hénéicosylique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Occurrence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme la plupart des acides gras à longue chaîne avec un nombre impair d'atomes de carbone, l'acide henéicosanoïque n'est que rarement présent dans la nature et seulement en petites concentrations.
-Cet acide gras est détecté dans la graisse du lait humain comme 0,24 % des acides gras la composant[4]. Il a aussi été détectée dans les champignons du genre Armillaria de 4-5 % des acides gras[5] et dans quelques autres plantes.
-Il compose  0,72 % des acides gras présents dans l'huile de graines de Azadirachta excelsa, un parent de l'arbre neem indien[6] et 2,26 % des acides gras dans les graines de Mucuna flagellipes, une légumineuse d'Inde qui a été étudié pour son aptitude en alimentation animale. Dans la même étude, aucun acide henéicosanoïque ne se trouve dans quatre autres espèces du genre Mucuna[7].
-Dans certains micro-organismes tels que Rickettsia typhi et Rickettsia prowazekii, il est lié chimiquement dans un lipopolysaccharide[8].
+Cet acide gras est détecté dans la graisse du lait humain comme 0,24 % des acides gras la composant. Il a aussi été détectée dans les champignons du genre Armillaria de 4-5 % des acides gras et dans quelques autres plantes.
+Il compose  0,72 % des acides gras présents dans l'huile de graines de Azadirachta excelsa, un parent de l'arbre neem indien et 2,26 % des acides gras dans les graines de Mucuna flagellipes, une légumineuse d'Inde qui a été étudié pour son aptitude en alimentation animale. Dans la même étude, aucun acide henéicosanoïque ne se trouve dans quatre autres espèces du genre Mucuna.
+Dans certains micro-organismes tels que Rickettsia typhi et Rickettsia prowazekii, il est lié chimiquement dans un lipopolysaccharide.
 </t>
         </is>
       </c>
